--- a/Format.xlsx
+++ b/Format.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Tech Report dated 07-07-2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Tech Report dated 06-08-2023</t>
   </si>
   <si>
     <t xml:space="preserve">Tech Operations</t>
@@ -40,31 +40,34 @@
     <t xml:space="preserve">Division Name</t>
   </si>
   <si>
-    <t xml:space="preserve">POS High Sync Defaulter dated 06/07/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS Daily Sync Defaulter dated 06/07/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Offices having daily synch failure for more than 48 hours dated: 06/07/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Offices not performded EOD in DPMS dated: 06/07/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bos for which  BO slips are not generated in CSI dated: 06/07/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post offices where both NSP 1 &amp; 2 are down dated: 06/07/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post offices where both NSP 1 &amp; 2 are down but ticket is not raised dated: 06/07/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOs which have not logged in Darpan during Office Hours(9AM - 2PM) dated: 06/07/2023</t>
+    <t xml:space="preserve">POS High Sync Defaulter dated 05/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS Daily Sync Defaulter dated 05/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Offices having daily synch failure for more than 48 hours dated: 05/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Offices not performded EOD in DPMS dated: 05/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bos for which  BO slips are not generated in CSI dated: 05/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post offices where both NSP 1 &amp; 2 are down dated: 05/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post offices where both NSP 1 &amp; 2 are down but ticket is not raised dated: 05/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOs which have not logged in Darpan during Office Hours(9AM - 2PM) dated: 05/08/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Cachar Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data not available at portal</t>
   </si>
   <si>
     <t xml:space="preserve">Darrang Division</t>
@@ -417,7 +420,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,7 +510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>1</v>
       </c>
@@ -515,28 +518,28 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>75</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,31 +547,31 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,31 +579,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>8</v>
-      </c>
       <c r="F7" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>31</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,31 +611,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>51</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,31 +643,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>72</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,31 +675,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>4</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>53</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,31 +707,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>6</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,31 +739,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,90 +771,92 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="n">
-        <v>10</v>
-      </c>
       <c r="E13" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E14" s="12" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>337</v>
-      </c>
-      <c r="H14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12" t="n">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v>751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:H14"/>
+    <mergeCell ref="I5:I14"/>
     <mergeCell ref="A14:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:J14">
